--- a/QCM_Sicharp/PlanningInitial.xlsx
+++ b/QCM_Sicharp/PlanningInitial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="06.06.2017" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="16.06.2017" sheetId="12" r:id="rId9"/>
     <sheet name="19.06.2017" sheetId="15" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
   <si>
     <t>7h30</t>
   </si>
@@ -84,15 +84,6 @@
     <t>Processus de suppression de mots-clés</t>
   </si>
   <si>
-    <t>Processus de création de réponses</t>
-  </si>
-  <si>
-    <t>Processus de modification de reponses</t>
-  </si>
-  <si>
-    <t>Processus de suppression de reponses</t>
-  </si>
-  <si>
     <t>Processus d'exportation au format Latex</t>
   </si>
   <si>
@@ -103,6 +94,9 @@
   </si>
   <si>
     <t>Création de la présentation</t>
+  </si>
+  <si>
+    <t>Maquettes</t>
   </si>
 </sst>
 </file>
@@ -463,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,13 +467,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -557,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -608,7 +602,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -681,7 +675,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -856,7 +850,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +910,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -931,10 +925,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,23 +978,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1009,10 +998,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1051,91 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1074,84 +1147,6 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1213,7 +1208,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>

--- a/QCM_Sicharp/PlanningInitial.xlsx
+++ b/QCM_Sicharp/PlanningInitial.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cedric\Documents\GitHub\TPI_QCM\QCM_Sicharp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="06.06.2017" sheetId="2" r:id="rId1"/>
-    <sheet name="07.06.2017" sheetId="3" r:id="rId2"/>
-    <sheet name="08.06.2017" sheetId="4" r:id="rId3"/>
-    <sheet name="09.06.2017" sheetId="5" r:id="rId4"/>
-    <sheet name="12.06.2017" sheetId="8" r:id="rId5"/>
-    <sheet name="13.06.2017" sheetId="9" r:id="rId6"/>
-    <sheet name="14.06.2017" sheetId="10" r:id="rId7"/>
-    <sheet name="15.06.2017" sheetId="11" r:id="rId8"/>
-    <sheet name="16.06.2017" sheetId="12" r:id="rId9"/>
-    <sheet name="19.06.2017" sheetId="15" r:id="rId10"/>
+    <sheet name="GROUPEMENT" sheetId="16" r:id="rId1"/>
+    <sheet name="06.06.2017" sheetId="2" r:id="rId2"/>
+    <sheet name="07.06.2017" sheetId="3" r:id="rId3"/>
+    <sheet name="08.06.2017" sheetId="4" r:id="rId4"/>
+    <sheet name="09.06.2017" sheetId="5" r:id="rId5"/>
+    <sheet name="12.06.2017" sheetId="8" r:id="rId6"/>
+    <sheet name="13.06.2017" sheetId="9" r:id="rId7"/>
+    <sheet name="14.06.2017" sheetId="10" r:id="rId8"/>
+    <sheet name="15.06.2017" sheetId="11" r:id="rId9"/>
+    <sheet name="16.06.2017" sheetId="12" r:id="rId10"/>
+    <sheet name="19.06.2017" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="23">
   <si>
     <t>7h30</t>
   </si>
@@ -102,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,10 +471,757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,22 +1300,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>42905</v>
+        <v>42893</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -602,7 +1355,86 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -620,22 +1452,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>42893</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -675,86 +1507,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -772,22 +1525,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>42895</v>
+        <v>42899</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -827,7 +1658,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -845,12 +1676,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +1691,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>42896</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -900,18 +1731,24 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -923,12 +1760,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +1775,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>42897</v>
+        <v>42901</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -978,7 +1815,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -994,234 +1831,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>